--- a/data/AsianPacificIslander22_2.xlsx
+++ b/data/AsianPacificIslander22_2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SChildress\Documents\GitHub\heritage-month\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB96023A-67A4-4492-82D0-9E73802E7CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28392B20-84B5-4055-A611-69C693136AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CB600C3-EB59-456E-B4C8-F3459CD1C19D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="edu_region" sheetId="1" r:id="rId1"/>
+    <sheet name="edu_county" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Highest level of education</t>
   </si>
@@ -43,9 +44,6 @@
     <t>White</t>
   </si>
   <si>
-    <t>Native Hawaiian and Pacific Islander</t>
-  </si>
-  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -59,6 +57,36 @@
   </si>
   <si>
     <t>Bachelor's Degree or higher</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Pacific Islander</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Kitsap</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Snohomish</t>
+  </si>
+  <si>
+    <t>Asian Alone</t>
+  </si>
+  <si>
+    <t>Native Hawaiian and Pacific Islander Alone</t>
+  </si>
+  <si>
+    <t>White Alone</t>
   </si>
 </sst>
 </file>
@@ -423,20 +451,108 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.10479330226451615</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.13866464850319543</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.1312485083336944E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.13356614834354613</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.39762024890682812</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.19509283325461699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.19763532674146672</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3504877228388833</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.32378650113744278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.56400522265047093</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.11322737975109318</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.4398081805246033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4575FC55-07B1-4031-890D-5D349790BBD5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -444,49 +560,49 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.10479330226451615</v>
+        <v>0.62172499974635342</v>
       </c>
       <c r="C2" s="1">
-        <v>0.13866464850319543</v>
+        <v>0.12813292030413967</v>
       </c>
       <c r="D2" s="1">
-        <v>4.1312485083336944E-2</v>
+        <v>0.56808698735846319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0.13356614834354613</v>
+        <v>0.35243222457219764</v>
       </c>
       <c r="C3" s="1">
-        <v>0.39762024890682812</v>
+        <v>0.11997526283240569</v>
       </c>
       <c r="D3" s="1">
-        <v>0.19509283325461699</v>
+        <v>0.36277272094457075</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>0.19763532674146672</v>
+        <v>0.30029901751388294</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3504877228388833</v>
+        <v>9.0304515225761287E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.32378650113744278</v>
+        <v>0.29904610492845785</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0.56400522265047093</v>
@@ -495,7 +611,21 @@
         <v>0.11322737975109318</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4398081805246033</v>
+        <v>0.44337408848618359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.50722906143189861</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.12232415902140673</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.31923404877335737</v>
       </c>
     </row>
   </sheetData>
